--- a/SQL/SQL評量_正規化題目_曾逸萱.xlsx
+++ b/SQL/SQL評量_正規化題目_曾逸萱.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\java班\教材\SQL測試\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7240456F-D436-4212-A1B0-63C55E317473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB7CDF2-6BB2-4AF2-A309-912002253183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="第三正規化" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="152">
   <si>
     <r>
       <rPr>
@@ -87,46 +87,6 @@
         <charset val="136"/>
       </rPr>
       <t>村里辦公室電話</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>設施地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>容人數量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
     </r>
   </si>
   <si>
@@ -1592,28 +1552,938 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>苗栗縣警察局防空疏散避難設施</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>設施類別</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="3"/>
-      </rPr>
-      <t>轄管</t>
-    </r>
+    <t>轄管村里對應分局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(4 BYTE)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>設施地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮中埔街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮和平街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>79</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮龍山路三段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>142</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣後龍鎮中華路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1498</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市米市街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市光復路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>117</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市博愛街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>109</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市大同路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市民族里和平路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市忠孝忠孝一路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>69</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市信義里中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市信義里中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>116</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(2 BYTE)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(10)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10 BYTE)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(5)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設施地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>容人數量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>轄管分局代碼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>竹南鎮公義路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1035</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹南里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>竹南鎮竹南里中山路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 103 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-472735</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山佳里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>竹南鎮山佳里國光街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 14 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-614186</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>埔頂里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後龍鎮埔頂里中興路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>136-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-724839</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠苗里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗市綠苗里中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 766 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-333240</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>民族里民族路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-660001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠孝里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>忠孝里光大街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-661145</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信義里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>信義里信義路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>巷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-616072</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹南分局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮民族街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗分局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣苗栗市金鳳街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>109</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭份分局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市中興路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>503</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1623,436 +2493,104 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t>轄管分局資訊</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> C</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>轄管</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>村里聯絡資訊</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轄管分局資訊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轄管村里對應分局</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(4 BYTE)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2(50)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>設施地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>苗栗縣竹南鎮中埔街</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>苗栗縣竹南鎮和平街</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>79</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>苗栗縣竹南鎮龍山路三段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>142</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>苗栗縣後龍鎮中華路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1498</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>苗栗縣苗栗市米市街</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>苗栗縣苗栗市光復路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>117</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>苗栗縣苗栗市博愛街</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>109</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>苗栗縣苗栗市大同路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>苗栗縣頭份市民族里和平路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>102</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>苗栗縣頭份市忠孝忠孝一路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>69</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>苗栗縣頭份市信義里中正路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>65</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>苗栗縣頭份市信義里中正路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>116</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(2 BYTE)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2(10)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10 BYTE)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(5)</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> B</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>苗栗縣警察局防空疏散避難設施</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> A</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>設施類別</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> D</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2060,7 +2598,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2150,6 +2688,33 @@
       <name val="Calibri"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2165,7 +2730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2305,13 +2870,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2342,9 +2920,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2354,9 +2929,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2364,18 +2936,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2390,9 +2950,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2405,12 +2962,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2418,9 +2969,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2432,7 +2980,61 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2749,10 +3351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721AA481-3FF8-423E-96AF-EAA7E548250B}">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2778,197 +3380,202 @@
     <col min="21" max="21" width="14.25" customWidth="1"/>
     <col min="22" max="22" width="15.625" customWidth="1"/>
     <col min="23" max="23" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.75" customWidth="1"/>
-    <col min="26" max="26" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17" customWidth="1"/>
-    <col min="28" max="28" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.25" customWidth="1"/>
-    <col min="31" max="31" width="15.125" customWidth="1"/>
-    <col min="32" max="32" width="7.5" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="27.875" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="16.125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="20.75" customWidth="1"/>
+    <col min="27" max="27" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17" customWidth="1"/>
+    <col min="29" max="29" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.25" customWidth="1"/>
+    <col min="32" max="32" width="15.125" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="7.5" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="27.875" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="16.125" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="13.875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:37">
+      <c r="A1" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="O1" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" s="31"/>
+      <c r="U1" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="AA1" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="33"/>
+      <c r="AF1" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="O1" s="14" t="s">
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="33"/>
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="13"/>
+      <c r="U2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="AA2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+    </row>
+    <row r="3" spans="1:37" s="11" customFormat="1">
+      <c r="A3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="30"/>
+      <c r="O3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="U1" s="21" t="s">
+      <c r="B4" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="20"/>
-      <c r="Z1" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="20"/>
-      <c r="AE1" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="20"/>
-    </row>
-    <row r="2" spans="1:36">
-      <c r="A2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" s="15"/>
-      <c r="U2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Z2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-    </row>
-    <row r="3" spans="1:36" s="12" customFormat="1">
-      <c r="A3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI3" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>99</v>
+      <c r="C4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2977,777 +3584,804 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="P4" s="16" t="s">
+      <c r="N4" s="7"/>
+      <c r="O4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="W4" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="X4" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y4" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK4" s="11"/>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="17">
+        <v>100</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="16" t="s">
+      <c r="X5" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC5" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF5" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI5" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ5" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3142</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="W6" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="X6" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB6" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC6" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD6" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ6" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="V4" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="W4" s="16" t="s">
+      <c r="C7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1072</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="V7" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="W7" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="X7" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB7" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC7" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD7" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ7" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="X4" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA4" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB4" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ4" s="12"/>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="23">
-        <v>100</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="C8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="7">
+        <v>32</v>
+      </c>
+      <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="F8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="W5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="X5" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB5" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC5" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE5" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH5" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI5" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="26">
-        <v>3142</v>
-      </c>
-      <c r="E6" s="26">
-        <v>1</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="V6" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="W6" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="X6" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z6" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB6" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC6" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF6" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG6" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH6" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI6" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
-      <c r="A7" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="26">
-        <v>1072</v>
-      </c>
-      <c r="E7" s="26">
-        <v>1</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="25" t="s">
+      <c r="N8" s="7"/>
+      <c r="O8" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="V7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="X7" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA7" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB7" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC7" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH7" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI7" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
-      <c r="A8" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="26">
+      <c r="S8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="26">
-        <v>1</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="W8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="X8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z8" s="7"/>
+      <c r="V8" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="W8" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="X8" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y8" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
-      <c r="AE8" s="25" t="s">
+      <c r="AD8" s="7"/>
+      <c r="AF8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AF8" s="26" t="s">
+      <c r="AH8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AG8" s="26" t="s">
+      <c r="AI8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AH8" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI8" s="27" t="s">
-        <v>17</v>
+      <c r="AJ8" s="20" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
-      <c r="A9" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="1:37">
+      <c r="A9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="9">
         <v>106</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="32">
-        <v>106</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N9" s="7"/>
       <c r="P9" s="7"/>
       <c r="R9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="V9" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="X9" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z9" s="7"/>
+      <c r="U9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="W9" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="X9" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y9" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
-      <c r="AE9" s="25" t="s">
+      <c r="AD9" s="7"/>
+      <c r="AF9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AF9" s="26" t="s">
+      <c r="AH9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AG9" s="26" t="s">
+      <c r="AI9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AH9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI9" s="27" t="s">
+      <c r="AJ9" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="9">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:36">
-      <c r="A10" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="32">
-        <v>26</v>
-      </c>
-      <c r="E10" s="26">
-        <v>1</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N10" s="7"/>
       <c r="P10" s="7"/>
       <c r="R10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="S10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="U10" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="W10" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="X10" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z10" s="7"/>
+      <c r="U10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="V10" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="W10" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="X10" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y10" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
-      <c r="AE10" s="25" t="s">
+      <c r="AD10" s="7"/>
+      <c r="AF10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AF10" s="26" t="s">
+      <c r="AH10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AG10" s="26" t="s">
+      <c r="AI10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AH10" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI10" s="27" t="s">
-        <v>53</v>
+      <c r="AJ10" s="20" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
-      <c r="A11" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="32">
+    <row r="11" spans="1:37">
+      <c r="A11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="9">
         <v>2038</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="7">
         <v>2</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M11" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N11" s="7"/>
       <c r="P11" s="7"/>
       <c r="R11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="S11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="U11" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="V11" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="W11" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="X11" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z11" s="7"/>
+      <c r="U11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="V11" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="W11" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
-      <c r="AE11" s="25" t="s">
+      <c r="AD11" s="7"/>
+      <c r="AF11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AF11" s="26" t="s">
+      <c r="AH11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AG11" s="26" t="s">
+      <c r="AI11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AH11" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI11" s="27" t="s">
-        <v>53</v>
+      <c r="AJ11" s="20" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
-      <c r="A12" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="32">
+    <row r="12" spans="1:37">
+      <c r="A12" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="9">
         <v>128</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="7">
         <v>2</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M12" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N12" s="7"/>
       <c r="P12" s="7"/>
       <c r="R12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="S12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="U12" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="V12" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="W12" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="X12" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z12" s="7"/>
+      <c r="U12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="V12" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="W12" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y12" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
-      <c r="AE12" s="28" t="s">
+      <c r="AD12" s="7"/>
+      <c r="AF12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG12" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AF12" s="29" t="s">
+      <c r="AH12" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AG12" s="29" t="s">
+      <c r="AI12" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AH12" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI12" s="30" t="s">
+      <c r="AJ12" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="7">
+        <v>353</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:36">
-      <c r="A13" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="26">
-        <v>353</v>
-      </c>
-      <c r="E13" s="26">
-        <v>1</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M13" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7"/>
       <c r="P13" s="7"/>
@@ -3757,55 +4391,56 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
-      <c r="Z13" s="7"/>
+      <c r="Y13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
-      <c r="AE13" s="7"/>
+      <c r="AD13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
     </row>
-    <row r="14" spans="1:36">
-      <c r="A14" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="26">
+    <row r="14" spans="1:37">
+      <c r="A14" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="7">
         <v>501</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="J14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M14" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -3816,55 +4451,56 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
-      <c r="Z14" s="7"/>
+      <c r="Y14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
-      <c r="AE14" s="7"/>
+      <c r="AD14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
     </row>
-    <row r="15" spans="1:36">
-      <c r="A15" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="26">
+    <row r="15" spans="1:37">
+      <c r="A15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="7">
         <v>194</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="J15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M15" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7"/>
       <c r="P15" s="7"/>
@@ -3874,55 +4510,56 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
-      <c r="Z15" s="7"/>
+      <c r="Y15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
-      <c r="AE15" s="7"/>
+      <c r="AD15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
       <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
     </row>
-    <row r="16" spans="1:36">
-      <c r="A16" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="29">
+    <row r="16" spans="1:37">
+      <c r="A16" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="22">
         <v>78</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="22">
         <v>1</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="J16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M16" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N16" s="7"/>
       <c r="P16" s="7"/>
@@ -3932,26 +4569,33 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
-      <c r="Z16" s="7"/>
+      <c r="Y16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
-      <c r="AE16" s="7"/>
+      <c r="AD16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+    </row>
+    <row r="20" spans="21:21">
+      <c r="U20" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="U1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3960,7 +4604,7 @@
   <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B2:B14"/>
+      <selection activeCell="F6" sqref="F6:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3993,19 +4637,19 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>101</v>
+        <v>81</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1</v>
@@ -4020,20 +4664,20 @@
         <v>4</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11" t="s">
-        <v>87</v>
+      <c r="N1" s="7"/>
+      <c r="O1" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>0</v>
@@ -4057,27 +4701,27 @@
         <v>4</v>
       </c>
       <c r="Z1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>102</v>
+        <v>69</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="7">
         <v>100</v>
@@ -4086,76 +4730,76 @@
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="U2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="X2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>103</v>
+        <v>70</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="7">
         <v>3142</v>
@@ -4164,76 +4808,76 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M3" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="U3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="Z3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="AC3" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>104</v>
+        <v>71</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="7">
         <v>1072</v>
@@ -4242,76 +4886,76 @@
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="J4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="U4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="7" t="s">
+      <c r="X4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="Z4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AB4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AB4" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="AC4" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>105</v>
+        <v>72</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="7">
         <v>32</v>
@@ -4320,53 +4964,53 @@
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="U5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="W5" s="7" t="s">
+      <c r="X5" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
@@ -4375,13 +5019,13 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="9">
         <v>106</v>
@@ -4390,48 +5034,48 @@
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N6" s="7"/>
       <c r="P6" s="7"/>
       <c r="R6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="U6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="U6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" s="7" t="s">
+      <c r="X6" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -4440,13 +5084,13 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="9">
         <v>26</v>
@@ -4455,48 +5099,48 @@
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N7" s="7"/>
       <c r="P7" s="7"/>
       <c r="R7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="U7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="U7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="W7" s="7" t="s">
+      <c r="X7" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -4505,13 +5149,13 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="9">
         <v>2038</v>
@@ -4520,48 +5164,48 @@
         <v>2</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N8" s="7"/>
       <c r="P8" s="7"/>
       <c r="R8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="U8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="W8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="U8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="W8" s="7" t="s">
+      <c r="X8" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -4570,13 +5214,13 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="9">
         <v>128</v>
@@ -4585,48 +5229,48 @@
         <v>2</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N9" s="7"/>
       <c r="P9" s="7"/>
       <c r="R9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="U9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="U9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="W9" s="7" t="s">
+      <c r="X9" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -4635,13 +5279,13 @@
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>110</v>
+        <v>77</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="7">
         <v>353</v>
@@ -4650,28 +5294,28 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M10" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N10" s="7"/>
       <c r="P10" s="7"/>
@@ -4688,13 +5332,13 @@
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>111</v>
+        <v>78</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="7">
         <v>501</v>
@@ -4703,28 +5347,28 @@
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="J11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M11" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -4742,13 +5386,13 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>112</v>
+        <v>79</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7">
         <v>194</v>
@@ -4757,28 +5401,28 @@
         <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="J12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M12" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N12" s="7"/>
       <c r="P12" s="7"/>
@@ -4795,13 +5439,13 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>113</v>
+        <v>80</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="7">
         <v>78</v>
@@ -4810,28 +5454,28 @@
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="J13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M13" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7"/>
       <c r="P13" s="7"/>
@@ -4857,7 +5501,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4879,7 +5523,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -4896,49 +5540,49 @@
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="33" t="s">
-        <v>101</v>
+      <c r="G1" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="H2" s="7">
         <v>100</v>
@@ -4947,39 +5591,39 @@
         <v>1</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>103</v>
+      <c r="G3" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="H3" s="7">
         <v>3142</v>
@@ -4988,39 +5632,39 @@
         <v>1</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M3" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>104</v>
+      <c r="G4" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>1072</v>
@@ -5029,39 +5673,39 @@
         <v>1</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>105</v>
+      <c r="G5" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -5070,39 +5714,39 @@
         <v>1</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G6" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H6" s="9">
         <v>106</v>
@@ -5111,39 +5755,39 @@
         <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G7" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H7" s="9">
         <v>26</v>
@@ -5152,39 +5796,39 @@
         <v>1</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H8" s="9">
         <v>2038</v>
@@ -5193,39 +5837,39 @@
         <v>2</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H9" s="9">
         <v>128</v>
@@ -5234,39 +5878,39 @@
         <v>2</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>110</v>
+      <c r="G10" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="H10" s="7">
         <v>353</v>
@@ -5275,39 +5919,39 @@
         <v>1</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M10" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>111</v>
+      <c r="G11" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="H11" s="7">
         <v>501</v>
@@ -5316,39 +5960,39 @@
         <v>1</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M11" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>112</v>
+      <c r="G12" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="H12" s="7">
         <v>194</v>
@@ -5357,39 +6001,39 @@
         <v>1</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M12" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>113</v>
+      <c r="G13" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -5398,16 +6042,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M13" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5420,7 +6064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -5453,373 +6099,373 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="31.5">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="31.5">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2">
         <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/SQL/SQL評量_正規化題目_曾逸萱.xlsx
+++ b/SQL/SQL評量_正規化題目_曾逸萱.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB7CDF2-6BB2-4AF2-A309-912002253183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7D85F3-DF06-49BA-B2CD-8C488A0AF505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="1215" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="第三正規化" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="159">
   <si>
     <r>
       <rPr>
@@ -2493,7 +2493,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>轄管分局資訊</t>
+      <t>設施類別</t>
     </r>
     <r>
       <rPr>
@@ -2501,23 +2501,17 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> C</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="3"/>
-      </rPr>
-      <t>轄管</t>
-    </r>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> D</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2527,7 +2521,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>村里聯絡資訊</t>
+      <t>苗栗縣警察局防空疏散避難設施</t>
     </r>
     <r>
       <rPr>
@@ -2535,37 +2529,145 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> evacuationfacility.EF</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> B</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>避難設施</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="MS Gothic"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>苗栗縣警察局防空疏散避難設施</t>
-    </r>
+      <t xml:space="preserve">編號
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>serial</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>設施地址
+address</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地下樓層數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+floors</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里別代號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+village</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>類別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>EFtype</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>容人數量
+EFcapacity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> A</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>轄管</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2575,7 +2677,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>設施類別</t>
+      <t>村里聯絡資訊</t>
     </r>
     <r>
       <rPr>
@@ -2583,14 +2685,67 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> D</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> VILLAGEINFOR</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>轄管分局資訊</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> POLICEINFOR</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>轄管分局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+POLICE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>STAION</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2598,7 +2753,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2714,6 +2869,13 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2889,7 +3051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2935,9 +3097,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2974,16 +3133,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2995,47 +3181,20 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3353,8 +3512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721AA481-3FF8-423E-96AF-EAA7E548250B}">
   <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3393,38 +3552,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="O1" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="P1" s="31"/>
-      <c r="U1" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="AA1" s="47" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="O1" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="33"/>
-      <c r="AF1" s="34" t="s">
+      <c r="P1" s="38"/>
+      <c r="U1" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="AA1" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="41"/>
+      <c r="AF1" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="33"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="41"/>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="13" t="s">
@@ -3462,24 +3621,24 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="1:37" s="11" customFormat="1">
-      <c r="A3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>1</v>
+    <row r="3" spans="1:37" s="11" customFormat="1" ht="31.5">
+      <c r="A3" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>153</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>2</v>
@@ -3502,8 +3661,8 @@
       <c r="M3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="29" t="s">
+      <c r="N3" s="28"/>
+      <c r="O3" s="27" t="s">
         <v>86</v>
       </c>
       <c r="P3" s="13" t="s">
@@ -3527,14 +3686,14 @@
       <c r="X3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="36" t="s">
+      <c r="Y3" s="30" t="s">
         <v>115</v>
       </c>
       <c r="AA3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" s="13" t="s">
-        <v>7</v>
+      <c r="AB3" s="46" t="s">
+        <v>158</v>
       </c>
       <c r="AC3" s="13" t="s">
         <v>8</v>
@@ -3595,19 +3754,19 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="39" t="s">
+      <c r="U4" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="V4" s="39" t="s">
+      <c r="V4" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="39" t="s">
+      <c r="W4" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="X4" s="40" t="s">
+      <c r="X4" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="Y4" s="41" t="s">
+      <c r="Y4" s="33" t="s">
         <v>94</v>
       </c>
       <c r="Z4" s="11"/>
@@ -3636,22 +3795,22 @@
       <c r="AK4" s="11"/>
     </row>
     <row r="5" spans="1:37">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>100</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>1</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -3676,10 +3835,10 @@
         <v>88</v>
       </c>
       <c r="N5" s="7"/>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="R5" s="7" t="s">
@@ -3688,54 +3847,54 @@
       <c r="S5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="26" t="s">
+      <c r="W5" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="Y5" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AA5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AB5" s="45" t="s">
+      <c r="AB5" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="AC5" s="26" t="s">
+      <c r="AC5" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="AD5" s="18" t="s">
+      <c r="AD5" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="AF5" s="16" t="s">
+      <c r="AF5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AG5" s="17" t="s">
+      <c r="AG5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="17" t="s">
+      <c r="AH5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="17" t="s">
+      <c r="AI5" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AJ5" s="18" t="s">
+      <c r="AJ5" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -3747,7 +3906,7 @@
       <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -3772,10 +3931,10 @@
         <v>88</v>
       </c>
       <c r="N6" s="7"/>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="19" t="s">
         <v>20</v>
       </c>
       <c r="R6" s="7" t="s">
@@ -3784,34 +3943,34 @@
       <c r="S6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="42" t="s">
+      <c r="V6" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="W6" s="43" t="s">
+      <c r="W6" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="X6" s="37" t="s">
+      <c r="X6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="Y6" s="20" t="s">
+      <c r="Y6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AA6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" s="46" t="s">
+      <c r="AB6" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="AC6" s="25" t="s">
+      <c r="AC6" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="AD6" s="20" t="s">
+      <c r="AD6" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="AF6" s="19" t="s">
+      <c r="AF6" s="18" t="s">
         <v>21</v>
       </c>
       <c r="AG6" s="7" t="s">
@@ -3823,15 +3982,15 @@
       <c r="AI6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AJ6" s="20" t="s">
+      <c r="AJ6" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -3843,7 +4002,7 @@
       <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -3868,10 +4027,10 @@
         <v>88</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="19" t="s">
         <v>31</v>
       </c>
       <c r="R7" s="7" t="s">
@@ -3880,34 +4039,34 @@
       <c r="S7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="19" t="s">
+      <c r="U7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="42" t="s">
+      <c r="V7" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="W7" s="43" t="s">
+      <c r="W7" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="X7" s="37" t="s">
+      <c r="X7" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Y7" s="20" t="s">
+      <c r="Y7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AA7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="AB7" s="44" t="s">
+      <c r="AB7" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="AC7" s="27" t="s">
+      <c r="AC7" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="AD7" s="23" t="s">
+      <c r="AD7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="AF7" s="19" t="s">
+      <c r="AF7" s="18" t="s">
         <v>26</v>
       </c>
       <c r="AG7" s="7" t="s">
@@ -3919,15 +4078,15 @@
       <c r="AI7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AJ7" s="20" t="s">
+      <c r="AJ7" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>100</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3939,7 +4098,7 @@
       <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -3964,10 +4123,10 @@
         <v>88</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="P8" s="23" t="s">
+      <c r="P8" s="22" t="s">
         <v>56</v>
       </c>
       <c r="R8" s="7" t="s">
@@ -3976,26 +4135,26 @@
       <c r="S8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="19" t="s">
+      <c r="U8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="V8" s="42" t="s">
+      <c r="V8" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="W8" s="43" t="s">
+      <c r="W8" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="X8" s="37" t="s">
+      <c r="X8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="Y8" s="20" t="s">
+      <c r="Y8" s="19" t="s">
         <v>16</v>
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
-      <c r="AF8" s="19" t="s">
+      <c r="AF8" s="18" t="s">
         <v>32</v>
       </c>
       <c r="AG8" s="7" t="s">
@@ -4007,12 +4166,12 @@
       <c r="AI8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AJ8" s="20" t="s">
+      <c r="AJ8" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -4027,7 +4186,7 @@
       <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -4059,26 +4218,26 @@
       <c r="S9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="U9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="V9" s="42" t="s">
+      <c r="V9" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="W9" s="43" t="s">
+      <c r="W9" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="X9" s="37" t="s">
+      <c r="X9" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="Y9" s="20" t="s">
+      <c r="Y9" s="19" t="s">
         <v>42</v>
       </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
-      <c r="AF9" s="19" t="s">
+      <c r="AF9" s="18" t="s">
         <v>37</v>
       </c>
       <c r="AG9" s="7" t="s">
@@ -4090,12 +4249,12 @@
       <c r="AI9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AJ9" s="20" t="s">
+      <c r="AJ9" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -4110,7 +4269,7 @@
       <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -4142,26 +4301,26 @@
       <c r="S10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="V10" s="42" t="s">
+      <c r="V10" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="W10" s="43" t="s">
+      <c r="W10" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="X10" s="37" t="s">
+      <c r="X10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="Y10" s="20" t="s">
+      <c r="Y10" s="19" t="s">
         <v>52</v>
       </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
-      <c r="AF10" s="19" t="s">
+      <c r="AF10" s="18" t="s">
         <v>47</v>
       </c>
       <c r="AG10" s="7" t="s">
@@ -4173,12 +4332,12 @@
       <c r="AI10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AJ10" s="20" t="s">
+      <c r="AJ10" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>75</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -4193,7 +4352,7 @@
       <c r="E11" s="7">
         <v>2</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -4225,26 +4384,26 @@
       <c r="S11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="19" t="s">
+      <c r="U11" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="V11" s="42" t="s">
+      <c r="V11" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="W11" s="43" t="s">
+      <c r="W11" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="X11" s="37" t="s">
+      <c r="X11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="Y11" s="20" t="s">
+      <c r="Y11" s="19" t="s">
         <v>136</v>
       </c>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
-      <c r="AF11" s="19" t="s">
+      <c r="AF11" s="18" t="s">
         <v>57</v>
       </c>
       <c r="AG11" s="7" t="s">
@@ -4256,12 +4415,12 @@
       <c r="AI11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AJ11" s="20" t="s">
+      <c r="AJ11" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -4276,7 +4435,7 @@
       <c r="E12" s="7">
         <v>2</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -4308,46 +4467,46 @@
       <c r="S12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="U12" s="21" t="s">
+      <c r="U12" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="V12" s="44" t="s">
+      <c r="V12" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="W12" s="27" t="s">
+      <c r="W12" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="X12" s="22" t="s">
+      <c r="X12" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="Y12" s="23" t="s">
+      <c r="Y12" s="22" t="s">
         <v>52</v>
       </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
-      <c r="AF12" s="21" t="s">
+      <c r="AF12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="AG12" s="22" t="s">
+      <c r="AG12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AH12" s="22" t="s">
+      <c r="AH12" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AI12" s="22" t="s">
+      <c r="AI12" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AJ12" s="23" t="s">
+      <c r="AJ12" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>105</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -4359,7 +4518,7 @@
       <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
@@ -4403,10 +4562,10 @@
       <c r="AJ13" s="7"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>106</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -4418,7 +4577,7 @@
       <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -4463,10 +4622,10 @@
       <c r="AJ14" s="7"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>107</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -4478,7 +4637,7 @@
       <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="7" t="s">
@@ -4522,22 +4681,22 @@
       <c r="AJ15" s="7"/>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>78</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <v>1</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="22" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -4582,7 +4741,7 @@
     </row>
     <row r="20" spans="21:21">
       <c r="U20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4639,7 +4798,7 @@
       <c r="A1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>96</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -4717,7 +4876,7 @@
       <c r="A2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4795,7 +4954,7 @@
       <c r="A3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>98</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -4873,7 +5032,7 @@
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -4951,7 +5110,7 @@
       <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -5281,7 +5440,7 @@
       <c r="A10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -5334,7 +5493,7 @@
       <c r="A11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>106</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -5388,7 +5547,7 @@
       <c r="A12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>107</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -5441,7 +5600,7 @@
       <c r="A13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -5540,7 +5699,7 @@
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>96</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -5581,7 +5740,7 @@
       <c r="F2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>97</v>
       </c>
       <c r="H2" s="7">
@@ -5622,7 +5781,7 @@
       <c r="F3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>98</v>
       </c>
       <c r="H3" s="7">
@@ -5663,7 +5822,7 @@
       <c r="F4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>99</v>
       </c>
       <c r="H4" s="7">
@@ -5704,7 +5863,7 @@
       <c r="F5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>100</v>
       </c>
       <c r="H5" s="7">
@@ -5909,7 +6068,7 @@
       <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>105</v>
       </c>
       <c r="H10" s="7">
@@ -5950,7 +6109,7 @@
       <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>106</v>
       </c>
       <c r="H11" s="7">
@@ -5991,7 +6150,7 @@
       <c r="F12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="24" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="7">
@@ -6032,7 +6191,7 @@
       <c r="F13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="24" t="s">
         <v>108</v>
       </c>
       <c r="H13" s="7">
@@ -6099,7 +6258,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="29" t="s">
         <v>114</v>
       </c>
       <c r="G1" s="1" t="s">

--- a/SQL/SQL評量_正規化題目_曾逸萱.xlsx
+++ b/SQL/SQL評量_正規化題目_曾逸萱.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7D85F3-DF06-49BA-B2CD-8C488A0AF505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBB1198-FB18-4C96-99B7-09413F0777F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="第三正規化" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="168">
   <si>
     <r>
       <rPr>
@@ -2024,18 +2024,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>轄管分局代碼</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <color theme="1"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
@@ -2484,34 +2472,175 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
+    <t>f</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>避難設施</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="MS Gothic"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>設施類別</t>
-    </r>
+      <t xml:space="preserve">編號
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>serial</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>設施地址
+address</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地下樓層數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+floors</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>類別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>EFtype</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>轄管分局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+POLICE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>STAION</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+VILLAGE</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別
+BUILDING</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> D</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>轄管</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2521,7 +2650,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>苗栗縣警察局防空疏散避難設施</t>
+      <t>村里聯絡資訊</t>
     </r>
     <r>
       <rPr>
@@ -2529,145 +2658,37 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> evacuationfacility.EF</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
         <family val="3"/>
       </rPr>
-      <t>避難設施</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> VILLAGEINFOR.VI</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="MS Gothic"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">編號
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>serial</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>設施地址
-address</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地下樓層數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-floors</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>村里別代號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-village</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>類別</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>EFtype</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>容人數量
-EFcapacity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+      <t>設施類別</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="3"/>
-      </rPr>
-      <t>轄管</t>
-    </r>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BUILDINGTYPE.BT</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2677,7 +2698,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>村里聯絡資訊</t>
+      <t>轄管分局資訊</t>
     </r>
     <r>
       <rPr>
@@ -2687,7 +2708,87 @@
         <rFont val="Calibri"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> VILLAGEINFOR</t>
+      <t xml:space="preserve"> POLICEINFOR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.PI</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>轄管分局代碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+PSERIAL</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">轄管分局代碼
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PSERIAL</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里別代號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+VSERIAL</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2701,7 +2802,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>轄管分局資訊</t>
+      <t>苗栗縣警察局防空疏散避難設施</t>
     </r>
     <r>
       <rPr>
@@ -2709,42 +2810,162 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> POLICEINFOR</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>轄管分局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> EVACUATIONFACILITY.EF</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>容人數量
+EFCAPACITY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>類別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>代號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
-POLICE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>STAION</t>
+BSERIAL</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里別代號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ VSERIAL</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里辦公室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+VADDRESS</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">村里辦公室電話
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>VTEL</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">分局地址
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PADDRESS</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分局電話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+PTEL</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2753,7 +2974,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2875,6 +3096,13 @@
       <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -3051,7 +3279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3133,17 +3361,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3162,6 +3384,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3184,16 +3418,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3512,8 +3737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721AA481-3FF8-423E-96AF-EAA7E548250B}">
   <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3521,7 +3746,7 @@
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="7.5" hidden="1" customWidth="1"/>
@@ -3552,38 +3777,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="A1" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="O1" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="P1" s="38"/>
-      <c r="U1" s="43" t="s">
+      <c r="A1" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="O1" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" s="40"/>
+      <c r="U1" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="AA1" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="AA1" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="41"/>
-      <c r="AF1" s="42" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="43"/>
+      <c r="AF1" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="41"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="43"/>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="13" t="s">
@@ -3622,23 +3847,23 @@
       <c r="AJ2" s="13"/>
     </row>
     <row r="3" spans="1:37" s="11" customFormat="1" ht="31.5">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>153</v>
+      <c r="D3" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>163</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>2</v>
@@ -3661,12 +3886,12 @@
       <c r="M3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>0</v>
+      <c r="N3" s="27"/>
+      <c r="O3" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>153</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>1</v>
@@ -3674,32 +3899,32 @@
       <c r="S3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB3" s="46" t="s">
+      <c r="U3" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="V3" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="W3" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="X3" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y3" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA3" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="AC3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>9</v>
+      <c r="AB3" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC3" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD3" s="37" t="s">
+        <v>167</v>
       </c>
       <c r="AF3" s="13" t="s">
         <v>1</v>
@@ -3754,19 +3979,19 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="31" t="s">
+      <c r="U4" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="V4" s="31" t="s">
+      <c r="V4" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="W4" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="X4" s="32" t="s">
+      <c r="X4" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="Y4" s="33" t="s">
+      <c r="Y4" s="31" t="s">
         <v>94</v>
       </c>
       <c r="Z4" s="11"/>
@@ -3854,22 +4079,22 @@
         <v>12</v>
       </c>
       <c r="W5" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X5" s="16" t="s">
         <v>87</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AB5" s="36" t="s">
+      <c r="AB5" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC5" s="25" t="s">
         <v>141</v>
-      </c>
-      <c r="AC5" s="25" t="s">
-        <v>142</v>
       </c>
       <c r="AD5" s="17" t="s">
         <v>88</v>
@@ -3946,14 +4171,14 @@
       <c r="U6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="34" t="s">
+      <c r="V6" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="W6" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="X6" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="Y6" s="19" t="s">
         <v>16</v>
@@ -3961,11 +4186,11 @@
       <c r="AA6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" s="34" t="s">
+      <c r="AB6" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC6" s="24" t="s">
         <v>143</v>
-      </c>
-      <c r="AC6" s="24" t="s">
-        <v>144</v>
       </c>
       <c r="AD6" s="19" t="s">
         <v>89</v>
@@ -4042,14 +4267,14 @@
       <c r="U7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="34" t="s">
+      <c r="V7" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="W7" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="W7" s="24" t="s">
+      <c r="X7" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="Y7" s="19" t="s">
         <v>16</v>
@@ -4057,11 +4282,11 @@
       <c r="AA7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="AB7" s="35" t="s">
+      <c r="AB7" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC7" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="AC7" s="26" t="s">
-        <v>146</v>
       </c>
       <c r="AD7" s="22" t="s">
         <v>90</v>
@@ -4138,14 +4363,14 @@
       <c r="U8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="V8" s="34" t="s">
+      <c r="V8" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="W8" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="W8" s="24" t="s">
+      <c r="X8" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="Y8" s="19" t="s">
         <v>16</v>
@@ -4221,14 +4446,14 @@
       <c r="U9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="V9" s="34" t="s">
+      <c r="V9" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="W9" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="X9" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="Y9" s="19" t="s">
         <v>42</v>
@@ -4304,14 +4529,14 @@
       <c r="U10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="V10" s="34" t="s">
+      <c r="V10" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="W10" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="W10" s="24" t="s">
+      <c r="X10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="Y10" s="19" t="s">
         <v>52</v>
@@ -4387,17 +4612,17 @@
       <c r="U11" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="V11" s="34" t="s">
+      <c r="V11" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="W11" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="W11" s="24" t="s">
+      <c r="X11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="Y11" s="19" t="s">
         <v>135</v>
-      </c>
-      <c r="Y11" s="19" t="s">
-        <v>136</v>
       </c>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
@@ -4468,16 +4693,16 @@
         <v>63</v>
       </c>
       <c r="U12" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="V12" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="V12" s="35" t="s">
+      <c r="W12" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="W12" s="26" t="s">
+      <c r="X12" s="21" t="s">
         <v>139</v>
-      </c>
-      <c r="X12" s="21" t="s">
-        <v>140</v>
       </c>
       <c r="Y12" s="22" t="s">
         <v>52</v>
@@ -4741,7 +4966,7 @@
     </row>
     <row r="20" spans="21:21">
       <c r="U20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -6258,7 +6483,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>114</v>
       </c>
       <c r="G1" s="1" t="s">

--- a/SQL/SQL評量_正規化題目_曾逸萱.xlsx
+++ b/SQL/SQL評量_正規化題目_曾逸萱.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBB1198-FB18-4C96-99B7-09413F0777F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A619BF9-A307-4670-AB3B-B085FBBB64BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="11715" yWindow="480" windowWidth="15090" windowHeight="13845" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="第三正規化" sheetId="4" r:id="rId1"/>
@@ -2545,39 +2545,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>類別</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>EFtype</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>轄管分局</t>
     </r>
     <r>
@@ -2966,6 +2933,39 @@
       </rPr>
       <t xml:space="preserve">
 PTEL</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>類別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>EFTYPE</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3397,6 +3397,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3417,9 +3420,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3737,8 +3737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721AA481-3FF8-423E-96AF-EAA7E548250B}">
   <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3777,38 +3777,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="A1" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="O1" s="39" t="s">
+      <c r="A1" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="O1" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="41"/>
+      <c r="U1" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="AA1" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="U1" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="AA1" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="43"/>
-      <c r="AF1" s="44" t="s">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="44"/>
+      <c r="AF1" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="44"/>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="13" t="s">
@@ -3854,16 +3854,16 @@
         <v>148</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>149</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>2</v>
@@ -3888,10 +3888,10 @@
       </c>
       <c r="N3" s="27"/>
       <c r="O3" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>1</v>
@@ -3900,31 +3900,31 @@
         <v>2</v>
       </c>
       <c r="U3" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V3" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W3" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="X3" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="X3" s="37" t="s">
+      <c r="Y3" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA3" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB3" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC3" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="Y3" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA3" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB3" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AD3" s="37" t="s">
         <v>166</v>
-      </c>
-      <c r="AD3" s="37" t="s">
-        <v>167</v>
       </c>
       <c r="AF3" s="13" t="s">
         <v>1</v>
